--- a/TImeSheet/TimeSheet.xlsx
+++ b/TImeSheet/TimeSheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ali\Desktop\School\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ali\Desktop\School\TImeSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
   <si>
     <t>تاریخ</t>
   </si>
@@ -41,9 +41,6 @@
     <t>مجموع</t>
   </si>
   <si>
-    <t>6:45-&gt;7:45 | 8:25-&gt;11:00 |  11:25-&gt;12:35 | 2:00-&gt;3:30 | 3:50-&gt;5:20</t>
-  </si>
-  <si>
     <t>1399/04/11</t>
   </si>
   <si>
@@ -56,38 +53,104 @@
     <t>1399/04/13</t>
   </si>
   <si>
-    <t>7:00-&gt;3:30</t>
-  </si>
-  <si>
-    <t>6:45 -&gt; 7:45 | 9:00-&gt;1:00 |2:00-&gt;5:00</t>
-  </si>
-  <si>
-    <t>7:40-&gt;8:40 |9:00-&gt;10:45 | 11:00-&gt;11:40 | 12:20-&gt;1:00</t>
-  </si>
-  <si>
     <t>1399/04/14</t>
   </si>
   <si>
-    <t>8:00-&gt;4:00</t>
-  </si>
-  <si>
-    <t>9:40-&gt;11:40 |1:00-&gt;2:00| 3:40-&gt;4:40 |4:45-&gt;5:45|6:00-&gt;7:00 | 8:00-&gt;10:00</t>
-  </si>
-  <si>
     <t>1399/04/15</t>
   </si>
   <si>
-    <t>شسزشس</t>
-  </si>
-  <si>
-    <t>7:50-&gt;8:50 | 9:15-&gt;</t>
+    <t>8:00-&gt;16:00</t>
+  </si>
+  <si>
+    <t>7:00-&gt;15:30</t>
+  </si>
+  <si>
+    <t>6:45 -&gt; 7:45 | 9:00-&gt;13:00 |14:00-&gt;17:00</t>
+  </si>
+  <si>
+    <t>7:40-&gt;8:40 |9:00-&gt;10:45 | 11:00-&gt;11:40 | 12:20-&gt;13:00</t>
+  </si>
+  <si>
+    <t>9:40-&gt;11:40 |13:00-&gt;14:00| 15:40-&gt;16:40 |16:45-&gt;17:45|18:00-&gt;19:00 |20:00-&gt;22:00</t>
+  </si>
+  <si>
+    <t>1399/04/16</t>
+  </si>
+  <si>
+    <t>1399/04/17</t>
+  </si>
+  <si>
+    <t>1399/04/18</t>
+  </si>
+  <si>
+    <t>1399/04/19</t>
+  </si>
+  <si>
+    <t>1399/04/20</t>
+  </si>
+  <si>
+    <t>1399/04/21</t>
+  </si>
+  <si>
+    <t>1399/04/22</t>
+  </si>
+  <si>
+    <t>1399/04/23</t>
+  </si>
+  <si>
+    <t>1399/04/24</t>
+  </si>
+  <si>
+    <t>1399/04/25</t>
+  </si>
+  <si>
+    <t>1399/04/26</t>
+  </si>
+  <si>
+    <t>1399/04/27</t>
+  </si>
+  <si>
+    <t>1399/04/28</t>
+  </si>
+  <si>
+    <t>1399/04/29</t>
+  </si>
+  <si>
+    <t>1399/04/30</t>
+  </si>
+  <si>
+    <t>1399/04/31</t>
+  </si>
+  <si>
+    <t>1399/05/01</t>
+  </si>
+  <si>
+    <t>1399/05/02</t>
+  </si>
+  <si>
+    <t>6:45-&gt;7:45 | 8:25-&gt;11:00 |  11:25-&gt;12:35 | 14:00-&gt;15:30 | 15:50-&gt;17:40</t>
+  </si>
+  <si>
+    <t>7:50-&gt;8:50 | 9:15-&gt;10:15 | 11:35-&gt;12:35 | 13:15-&gt;14:15 |14:30-&gt;17:30|</t>
+  </si>
+  <si>
+    <t>7:00-&gt;10:00|11:00-&gt;13:00|14:00-&gt;17:00</t>
+  </si>
+  <si>
+    <t>8:00-&gt;12:00</t>
+  </si>
+  <si>
+    <t>12:00-&gt;16:00</t>
+  </si>
+  <si>
+    <t>18:00-&gt;20:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +184,12 @@
       <charset val="178"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -143,7 +212,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -154,10 +223,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -439,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,7 +516,7 @@
     <col min="1" max="1" width="28.42578125" customWidth="1"/>
     <col min="2" max="2" width="49.42578125" customWidth="1"/>
     <col min="3" max="3" width="99" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -463,7 +529,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -472,26 +538,29 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0.3576388888888889</v>
+        <v>34</v>
+      </c>
+      <c r="D2" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -499,41 +568,289 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.16666666666666666</v>
+        <v>14</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="4">
-        <v>0.33333333333333331</v>
+      <c r="D6" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>17</v>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="1">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/TImeSheet/TimeSheet.xlsx
+++ b/TImeSheet/TimeSheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
   <si>
     <t>تاریخ</t>
   </si>
@@ -144,6 +144,36 @@
   </si>
   <si>
     <t>18:00-&gt;20:00</t>
+  </si>
+  <si>
+    <t>1399/05/03</t>
+  </si>
+  <si>
+    <t>1399/05/04</t>
+  </si>
+  <si>
+    <t>1399/05/05</t>
+  </si>
+  <si>
+    <t>1399/05/06</t>
+  </si>
+  <si>
+    <t>1399/05/07</t>
+  </si>
+  <si>
+    <t>1399/05/08</t>
+  </si>
+  <si>
+    <t>1399/05/09</t>
+  </si>
+  <si>
+    <t>1399/05/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:00-&gt;14:00  </t>
+  </si>
+  <si>
+    <t>7:00-&gt;13:30 | 14:00-&gt;15:30</t>
   </si>
 </sst>
 </file>
@@ -505,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,8 +879,55 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
       <c r="D26" s="1">
-        <v>8</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/TImeSheet/TimeSheet.xlsx
+++ b/TImeSheet/TimeSheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="76">
   <si>
     <t>تاریخ</t>
   </si>
@@ -174,6 +174,84 @@
   </si>
   <si>
     <t>7:00-&gt;13:30 | 14:00-&gt;15:30</t>
+  </si>
+  <si>
+    <t>1399/05/11</t>
+  </si>
+  <si>
+    <t>1399/05/12</t>
+  </si>
+  <si>
+    <t>1399/05/13</t>
+  </si>
+  <si>
+    <t>1399/05/14</t>
+  </si>
+  <si>
+    <t>1399/05/15</t>
+  </si>
+  <si>
+    <t>1399/05/16</t>
+  </si>
+  <si>
+    <t>1399/05/17</t>
+  </si>
+  <si>
+    <t>1399/05/18</t>
+  </si>
+  <si>
+    <t>1399/05/19</t>
+  </si>
+  <si>
+    <t>1399/05/20</t>
+  </si>
+  <si>
+    <t>1399/05/21</t>
+  </si>
+  <si>
+    <t>1399/05/22</t>
+  </si>
+  <si>
+    <t>1399/05/23</t>
+  </si>
+  <si>
+    <t>1399/05/24</t>
+  </si>
+  <si>
+    <t>1399/05/25</t>
+  </si>
+  <si>
+    <t>1399/05/26</t>
+  </si>
+  <si>
+    <t>1399/05/27</t>
+  </si>
+  <si>
+    <t>1399/05/28</t>
+  </si>
+  <si>
+    <t>1399/05/29</t>
+  </si>
+  <si>
+    <t>1399/05/30</t>
+  </si>
+  <si>
+    <t>1399/05/31</t>
+  </si>
+  <si>
+    <t>7:00-&gt;15:00</t>
+  </si>
+  <si>
+    <t>8:00-&gt;11:00|12-&gt;2:00|4-&gt;7</t>
+  </si>
+  <si>
+    <t>10:00-&gt;14:00|15:00-&gt;18:00 |7-&gt;8</t>
+  </si>
+  <si>
+    <t>7:00-&gt;12:00</t>
+  </si>
+  <si>
+    <t>10:00-&gt;13:00|15:00-&gt;18:00 |7-&gt;8</t>
   </si>
 </sst>
 </file>
@@ -535,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,30 +982,360 @@
       <c r="A28" t="s">
         <v>42</v>
       </c>
+      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>43</v>
       </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>44</v>
       </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>45</v>
       </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>47</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/TImeSheet/TimeSheet.xlsx
+++ b/TImeSheet/TimeSheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="78">
   <si>
     <t>تاریخ</t>
   </si>
@@ -252,6 +252,12 @@
   </si>
   <si>
     <t>10:00-&gt;13:00|15:00-&gt;18:00 |7-&gt;8</t>
+  </si>
+  <si>
+    <t>8-&gt;16</t>
+  </si>
+  <si>
+    <t>7-&gt;12 | 3-&gt;20-&gt;6:20</t>
   </si>
 </sst>
 </file>
@@ -616,7 +622,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1332,10 +1338,28 @@
       <c r="A53" t="s">
         <v>69</v>
       </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>70</v>
+      </c>
+      <c r="B54" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" s="1">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
